--- a/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T12:53:42+00:00</t>
+    <t>2025-03-07T13:01:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:01:42+00:00</t>
+    <t>2025-03-07T13:05:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:05:30+00:00</t>
+    <t>2025-03-07T13:20:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:20:43+00:00</t>
+    <t>2025-03-24T16:39:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/tableau-correspondance-professions-roles/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:39:42+00:00</t>
+    <t>2025-03-25T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
